--- a/チェックリスト.xlsx
+++ b/チェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\cre\Develop_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EC9D45-31E6-40D3-90E3-EEEF07660CCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9517E000-AC33-4039-B1D9-D86C7A62929E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{763CB05E-9BFD-4B6B-825B-022FB82FE4E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -169,6 +169,266 @@
     <t>エラー解決</t>
     <rPh sb="3" eb="5">
       <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>境界値テスト</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再テストの有無</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数</t>
+    <rPh sb="0" eb="2">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点数</t>
+    <rPh sb="0" eb="2">
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２回３０点以下の成績をとった場合</t>
+    <rPh sb="0" eb="2">
+      <t>ニカイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>テンイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再テストなし</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３回３０点以下の成績をとった場合</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>テンイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再テスト</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４回３０点以下の成績をとった場合</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>テンイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度でも９点より下の点数を取った場合</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度でも１０点より下の点数を取った場合</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度でも１１点より下の点数を取った場合</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不合格</t>
+    <rPh sb="0" eb="3">
+      <t>フゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不合格ではない</t>
+    <rPh sb="0" eb="3">
+      <t>フゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例外(回数)</t>
+    <rPh sb="0" eb="2">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３回２９点以下の成績をとった場合</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>テンイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３回３１点以下の成績をとった場合</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>テンイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必ずしも再テストになるとは限らない
+例)３０点以下を２回，３１点を１回
+　 ３０点以下を１回，３１点を２回</t>
+    <rPh sb="0" eb="1">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>テンイカ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -573,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3005D7F-C563-45FE-BB6B-736291B4A603}">
-  <dimension ref="A2:Y15"/>
+  <dimension ref="A2:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4:V4"/>
+      <selection activeCell="S15" sqref="S15:V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -842,26 +1102,36 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="K10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -869,7 +1139,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -880,15 +1150,19 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="K11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -907,15 +1181,19 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="K12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
@@ -931,18 +1209,24 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="K13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="S13" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
@@ -961,15 +1245,19 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="K14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
+      <c r="S14" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
@@ -977,7 +1265,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -988,15 +1276,19 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="K15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
+      <c r="S15" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -1004,9 +1296,110 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="102">
     <mergeCell ref="S4:V4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:V12"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -1041,18 +1434,24 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
@@ -1063,27 +1462,33 @@
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="K14:N14"/>
     <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
     <mergeCell ref="O10:R10"/>
     <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O16:R16"/>
     <mergeCell ref="S11:V11"/>
-    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="S16:V16"/>
     <mergeCell ref="S13:V13"/>
     <mergeCell ref="S14:V14"/>
-    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="S18:V18"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="S7:V7"/>

--- a/チェックリスト.xlsx
+++ b/チェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\cre\Develop_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9517E000-AC33-4039-B1D9-D86C7A62929E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564F148F-D640-4F1C-A1A2-F698B3391EE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{763CB05E-9BFD-4B6B-825B-022FB82FE4E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -429,6 +429,97 @@
     </rPh>
     <rPh sb="52" eb="53">
       <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力CSVファイルのCSVフォーマットが異なっている場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力CSVファイルが存在しない場合（またはプログラムの引数に入力CSVファイルを指定しなかった場合）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力CSVファイルが書き込めなかった場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常系テスト</t>
+    <rPh sb="0" eb="3">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVファイルのCSVフォーマットが異なる場合、比較してどこが違うのかエラーを表示して、修正内容を検討する</t>
+    <rPh sb="18" eb="19">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>シュウセイナイヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージを表示して、問題を明確に伝える</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージを表示して問題を明確に伝え、原因を特定または代替ファイル名を提案する。</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ダイカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テイアン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -513,11 +604,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3005D7F-C563-45FE-BB6B-736291B4A603}">
-  <dimension ref="A2:Y18"/>
+  <dimension ref="A2:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15:V15"/>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21:V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -848,39 +939,39 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
       <c r="W2" s="1" t="s">
         <v>4</v>
       </c>
@@ -935,12 +1026,12 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1109,22 +1200,22 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1150,12 +1241,12 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1181,12 +1272,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1214,12 +1305,12 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1245,12 +1336,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -1276,17 +1367,17 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="5" t="s">
         <v>37</v>
       </c>
       <c r="T15" s="4"/>
@@ -1391,20 +1482,179 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
+    <row r="19" spans="1:25" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="1:25" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="102">
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
+  <mergeCells count="120">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
@@ -1429,72 +1679,26 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O16:R16"/>
     <mergeCell ref="S11:V11"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="S10:V10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
